--- a/WWW/posts/immune-privilege/post_info.xlsx
+++ b/WWW/posts/immune-privilege/post_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="321" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -505,7 +505,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
